--- a/_WIP/Artjom/Artjom-Zeiterfassung.xlsx
+++ b/_WIP/Artjom/Artjom-Zeiterfassung.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lazarus\Documents\GitHub\Voodoo\_WIP\Artjom\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -446,7 +441,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
@@ -1029,7 +1024,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1039,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1799,12 +1794,18 @@
       <c r="A46" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="23"/>
+      <c r="B46" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C46" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D46" s="23">
+        <v>1</v>
+      </c>
       <c r="E46" s="9">
         <f>(B46-C46)*-24-D46</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -1814,12 +1815,16 @@
       <c r="A47" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
+      <c r="B47" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C47" s="13">
+        <v>1</v>
+      </c>
       <c r="D47" s="14"/>
       <c r="E47" s="9">
         <f t="shared" ref="E47:E52" si="4">(B47-C47)*-24-D47</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -1909,7 +1914,7 @@
       </c>
       <c r="E53" s="21">
         <f>SUM(E46:E52)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -1924,7 +1929,7 @@
       </c>
       <c r="E54" s="22">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2085,7 +2090,7 @@
       </c>
       <c r="E64" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2246,7 +2251,7 @@
       </c>
       <c r="E74" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2407,7 +2412,7 @@
       </c>
       <c r="E84" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2568,7 +2573,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2729,7 +2734,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -2890,7 +2895,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3051,7 +3056,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3212,7 +3217,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3373,7 +3378,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3534,7 +3539,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3694,7 +3699,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3855,7 +3860,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4016,7 +4021,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Artjom/Artjom-Zeiterfassung.xlsx
+++ b/_WIP/Artjom/Artjom-Zeiterfassung.xlsx
@@ -1024,7 +1024,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1034,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1834,12 +1834,16 @@
       <c r="A48" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
+      <c r="B48" s="13">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C48" s="13">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D48" s="14"/>
       <c r="E48" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
@@ -1864,12 +1868,16 @@
       <c r="A50" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
+      <c r="B50" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C50" s="13">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D50" s="14"/>
       <c r="E50" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
@@ -1914,7 +1922,7 @@
       </c>
       <c r="E53" s="21">
         <f>SUM(E46:E52)</f>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -1929,7 +1937,7 @@
       </c>
       <c r="E54" s="22">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2090,7 +2098,7 @@
       </c>
       <c r="E64" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2251,7 +2259,7 @@
       </c>
       <c r="E74" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2412,7 +2420,7 @@
       </c>
       <c r="E84" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2573,7 +2581,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2734,7 +2742,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -2895,7 +2903,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3056,7 +3064,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3217,7 +3225,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3378,7 +3386,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3539,7 +3547,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3699,7 +3707,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3860,7 +3868,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4021,7 +4029,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Artjom/Artjom-Zeiterfassung.xlsx
+++ b/_WIP/Artjom/Artjom-Zeiterfassung.xlsx
@@ -1024,7 +1024,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1034,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,12 +2003,18 @@
       <c r="A58" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14"/>
+      <c r="B58" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C58" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D58" s="14">
+        <v>1</v>
+      </c>
       <c r="E58" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
@@ -2018,12 +2024,18 @@
       <c r="A59" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14"/>
+      <c r="B59" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C59" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D59" s="14">
+        <v>1</v>
+      </c>
       <c r="E59" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
@@ -2083,7 +2095,7 @@
       </c>
       <c r="E63" s="21">
         <f>SUM(E56:E62)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -2098,7 +2110,7 @@
       </c>
       <c r="E64" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2149,12 +2161,16 @@
       <c r="A67" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
+      <c r="B67" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C67" s="13">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D67" s="14"/>
       <c r="E67" s="9">
         <f t="shared" ref="E67:E72" si="6">(B67-C67)*-24-D67</f>
-        <v>0</v>
+        <v>5.9999999999999982</v>
       </c>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
@@ -2244,7 +2260,7 @@
       </c>
       <c r="E73" s="27">
         <f>SUM(E66:E72)</f>
-        <v>0</v>
+        <v>5.9999999999999982</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -2259,7 +2275,7 @@
       </c>
       <c r="E74" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2420,7 +2436,7 @@
       </c>
       <c r="E84" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2581,7 +2597,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2742,7 +2758,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -2903,7 +2919,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3064,7 +3080,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3225,7 +3241,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3386,7 +3402,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3547,7 +3563,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3707,7 +3723,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3868,7 +3884,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4029,7 +4045,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Artjom/Artjom-Zeiterfassung.xlsx
+++ b/_WIP/Artjom/Artjom-Zeiterfassung.xlsx
@@ -1024,7 +1024,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1034,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2472,12 +2472,16 @@
       <c r="A86" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
+      <c r="B86" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C86" s="13">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D86" s="23"/>
       <c r="E86" s="9">
         <f>(B86-C86)*-24-D86</f>
-        <v>0</v>
+        <v>5.9999999999999982</v>
       </c>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
@@ -2487,12 +2491,16 @@
       <c r="A87" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
+      <c r="B87" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C87" s="13">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D87" s="14"/>
       <c r="E87" s="9">
         <f t="shared" ref="E87:E92" si="8">(B87-C87)*-24-D87</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
@@ -2582,7 +2590,7 @@
       </c>
       <c r="E93" s="27">
         <f>SUM(E86:E92)</f>
-        <v>0</v>
+        <v>13.999999999999998</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -2597,7 +2605,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2758,7 +2766,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -2919,7 +2927,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3080,7 +3088,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3241,7 +3249,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3402,7 +3410,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3563,7 +3571,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3723,7 +3731,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3884,7 +3892,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4045,7 +4053,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
